--- a/public/excel_files/generated-tax-report.xlsx
+++ b/public/excel_files/generated-tax-report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -51,6 +51,90 @@
   </si>
   <si>
     <t>Jen Dee  Dela Cruz</t>
+  </si>
+  <si>
+    <t>MARCELO OCAMPO MANIAGA</t>
+  </si>
+  <si>
+    <t>GODOFREDO PIGAR VILLANUEVA</t>
+  </si>
+  <si>
+    <t>MYRNA BABAO GARCIA</t>
+  </si>
+  <si>
+    <t>RANDY MEL MALDIA PACIA</t>
+  </si>
+  <si>
+    <t>RAMIL MENDOZA MALIKSI</t>
+  </si>
+  <si>
+    <t>ACHILLES CONSTANCIO ROSALES MAYO</t>
+  </si>
+  <si>
+    <t>RONEL NAVAREZ REHIZ</t>
+  </si>
+  <si>
+    <t>RONALDO CALDO PUCYUTAN</t>
+  </si>
+  <si>
+    <t>JULIAN A GULFAN</t>
+  </si>
+  <si>
+    <t>JUDITH TAMAYO VERGARA</t>
+  </si>
+  <si>
+    <t>JOELITO ILAGAN HUELGAS</t>
+  </si>
+  <si>
+    <t>DANILO MENDOZA SALAZAR</t>
+  </si>
+  <si>
+    <t>DONALD TIONGSON MALABANAN</t>
+  </si>
+  <si>
+    <t>JULIETA SANCHEZ MANTO</t>
+  </si>
+  <si>
+    <t>CORNELIO LAYLO OAY</t>
+  </si>
+  <si>
+    <t>LITO TOLENTINO MALIKSI</t>
+  </si>
+  <si>
+    <t>IVAN CARPIO MAGHIRANG</t>
+  </si>
+  <si>
+    <t>ARNEL GARCIA UNICO</t>
+  </si>
+  <si>
+    <t>HENRY MALILAY TOLENTINO</t>
+  </si>
+  <si>
+    <t>RODRIGO MALICSI OSTONAL JR.</t>
+  </si>
+  <si>
+    <t>PAULINO JR. VILLANUEVA SANCEBUCHE</t>
+  </si>
+  <si>
+    <t>ANACLITO RECIO MASAJO</t>
+  </si>
+  <si>
+    <t>LEONILO GOMEZ MALOLOS</t>
+  </si>
+  <si>
+    <t>ROMEO MOJICA LAPITAN</t>
+  </si>
+  <si>
+    <t>ERWIN V FEDERICO</t>
+  </si>
+  <si>
+    <t>JEFFREY MABILANGAN TOLENTINO</t>
+  </si>
+  <si>
+    <t>RYAN MABILANGAN RASING</t>
+  </si>
+  <si>
+    <t>LEA CELIS MABILANGAN</t>
   </si>
 </sst>
 </file>
@@ -404,7 +488,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,7 +570,315 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12"/>
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
